--- a/SOURCE/MarketingSystem/MarketingSystem/Template/Bill.xlsx
+++ b/SOURCE/MarketingSystem/MarketingSystem/Template/Bill.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thanh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Asp.NET_T1904E\NEXUS_SERVICE_MARKETING_SYSTEM\SOURCE\MarketingSystem\MarketingSystem\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2A493B-2321-45AC-BADA-241AA7BD03ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BCA23E-3A7F-437A-A7E9-4D9C7C70EA83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{33A0B0DD-9FA5-464D-906F-F9AA7F4C392D}"/>
   </bookViews>
@@ -144,13 +144,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -476,11 +476,11 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="1"/>
@@ -510,7 +510,7 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1"/>
@@ -563,7 +563,7 @@
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1"/>
